--- a/2022-2023/tecno1r/Exercici3.xlsx
+++ b/2022-2023/tecno1r/Exercici3.xlsx
@@ -8,40 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleixjulia/Documents/GitHub/ajuliaest.github.io/2022-2023/tecno1r/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4C4397-BC62-0540-AC09-F81737206977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B934A55A-9CFF-544F-A0CA-F70EB165F892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{77182972-E14F-8240-B29E-AC2DDFAB7A62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$21:$D$32</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$20</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$E$21:$E$32</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$21:$D$32</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$E$20</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$E$21:$E$32</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$F$20</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$21:$F$32</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$21:$D$32</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$E$20</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$E$21:$E$32</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$F$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$21:$E$32</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$F$21:$F$32</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$D$21:$D$32</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$E$21:$E$32</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$21:$D$32</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$E$21:$E$32</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$21:$F$32</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$21:$D$32</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$21:$E$32</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$21:$D$32</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$21:$E$32</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$21:$D$32</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Menjar</t>
   </si>
@@ -130,13 +103,22 @@
   <si>
     <t>Aigua €</t>
   </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Temp. Dilluns</t>
+  </si>
+  <si>
+    <t>Temp. Dimarts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -189,7 +171,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,6 +308,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C565-B148-A7BA-0EF5B5433D37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -341,6 +328,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C565-B148-A7BA-0EF5B5433D37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -356,6 +348,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C565-B148-A7BA-0EF5B5433D37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -371,10 +368,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C565-B148-A7BA-0EF5B5433D37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$5:$D$9</c:f>
+              <c:f>Sheet1!$D$30:$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -397,7 +399,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$9</c:f>
+              <c:f>Sheet1!$E$30:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="5"/>
@@ -604,7 +606,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$20</c:f>
+              <c:f>Sheet1!$E$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -627,7 +629,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$21:$D$32</c:f>
+              <c:f>Sheet1!$D$46:$D$57</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -671,7 +673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$32</c:f>
+              <c:f>Sheet1!$E$46:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -726,7 +728,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$20</c:f>
+              <c:f>Sheet1!$F$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -749,7 +751,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$21:$D$32</c:f>
+              <c:f>Sheet1!$D$46:$D$57</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -793,7 +795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$21:$F$32</c:f>
+              <c:f>Sheet1!$F$46:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1126,7 +1128,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$20</c:f>
+              <c:f>Sheet1!$E$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1147,7 +1149,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$21:$D$32</c:f>
+              <c:f>Sheet1!$D$46:$D$57</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1191,7 +1193,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$32</c:f>
+              <c:f>Sheet1!$E$46:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1245,7 +1247,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$20</c:f>
+              <c:f>Sheet1!$F$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1266,7 +1268,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$21:$D$32</c:f>
+              <c:f>Sheet1!$D$46:$D$57</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1310,7 +1312,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$21:$F$32</c:f>
+              <c:f>Sheet1!$F$46:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1562,6 +1564,844 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp. Dilluns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E45B-7D48-8DBD-055899B9D60C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1164941584"/>
+        <c:axId val="1165820384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1164941584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1165820384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1165820384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1164941584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Comparació Temperatures</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp. Dilluns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F367-AC4E-BAA0-3F79D29ADA72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp. Dimarts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F367-AC4E-BAA0-3F79D29ADA72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="560574992"/>
+        <c:axId val="1191450672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="560574992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191450672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1191450672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560574992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1682,6 +2522,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2867,6 +3787,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3226,13 +5178,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3262,13 +5214,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3298,13 +5250,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3325,6 +5277,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDE520D-6CA1-0E4B-3204-DEF84C792B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ADF6CA-36E8-CEBF-3EF0-49C74330FA49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3630,205 +5654,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1913C9BC-198D-0B4D-8E03-C2C0438DD19F}">
-  <dimension ref="D4:F32"/>
+  <dimension ref="D2:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D4" s="2" t="s">
+    <row r="2" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8">
         <v>5</v>
       </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>150</v>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>25</v>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
         <v>20</v>
       </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>60</v>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>30</v>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
         <v>20</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>8</v>
+      <c r="D21">
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>9</v>
+      <c r="D22">
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>10</v>
+      <c r="D23">
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>11</v>
+      <c r="D24">
+        <v>21</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>12</v>
+      <c r="D25">
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F25">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>13</v>
+      <c r="D26">
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
         <v>14</v>
-      </c>
-      <c r="E27">
-        <v>90</v>
-      </c>
-      <c r="F27">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
-      <c r="F28">
-        <v>12</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29">
-        <v>64</v>
-      </c>
-      <c r="F29">
-        <v>52</v>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30">
-        <v>62</v>
-      </c>
-      <c r="F30">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31">
-        <v>23</v>
-      </c>
-      <c r="F31">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>25</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>80</v>
+      </c>
+      <c r="F47">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>35</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>76</v>
+      </c>
+      <c r="F50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>22</v>
+      </c>
+      <c r="F51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>90</v>
+      </c>
+      <c r="F52">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <v>64</v>
+      </c>
+      <c r="F54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>62</v>
+      </c>
+      <c r="F55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>23</v>
+      </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
         <v>19</v>
       </c>
-      <c r="E32">
+      <c r="E57">
         <v>25</v>
       </c>
-      <c r="F32">
+      <c r="F57">
         <v>43</v>
       </c>
     </row>
